--- a/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -320,12 +320,36 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>书生</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS管理基础数据删除功能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2006</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>重楼·</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源管理定金规则统一</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -481,6 +505,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -733,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +1002,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,8 +1032,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1377,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1544,7 @@
         <v>42744</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>80</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1574,8 +1608,8 @@
         <v>42744</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
-        <v>81</v>
+      <c r="L3" s="79" t="s">
+        <v>88</v>
       </c>
       <c r="M3" s="58" t="s">
         <v>82</v>
@@ -1638,7 +1672,7 @@
         <v>42744</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>81</v>
       </c>
       <c r="M4" s="58" t="s">
@@ -1671,25 +1705,61 @@
       <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="59">
+        <v>42744</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="59">
+        <v>42744</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="56"/>
+      <c r="L5" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>42744</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="89" t="s">
+        <v>91</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="67"/>
@@ -1697,25 +1767,61 @@
       <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="59">
+        <v>42745</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="59">
+        <v>42745</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="56"/>
+      <c r="L6" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42745</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="68" t="s">
+        <v>91</v>
+      </c>
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
       <c r="V6" s="67"/>
@@ -5717,7 +5823,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5725,9 +5831,10 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="T3" r:id="rId2" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7105"/>
     <hyperlink ref="T4" r:id="rId3" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7106"/>
+    <hyperlink ref="S6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5903,19 +6010,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5953,8 +6060,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5966,8 +6073,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5979,8 +6086,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5992,8 +6099,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6005,8 +6112,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6018,8 +6125,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6031,8 +6138,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6044,8 +6151,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6106,36 +6213,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6420,36 +6527,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6734,36 +6841,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7050,36 +7157,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
